--- a/Tableau métriques/Evolutions métriques/evo_pressure.xlsx
+++ b/Tableau métriques/Evolutions métriques/evo_pressure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabie\Documents\Programmation\Github\Stage CF63\Tableau métriques\Evolutions métriques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D841BF2B-19F8-414D-A8C8-C4CEC918C54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7693F10-25E0-4FF1-8A09-9AE546D6D567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>pressure</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>2021_2022</t>
   </si>
@@ -62,9 +59,6 @@
     <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
   </si>
   <si>
-    <t>count_low_pressures_received_in_sample</t>
-  </si>
-  <si>
     <t>count_low_pressures_received_per_match</t>
   </si>
   <si>
@@ -74,76 +68,70 @@
     <t>count_pass_attempts_under_medium_pressure_per_match</t>
   </si>
   <si>
+    <t>count_ball_retentions_under_medium_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_medium_pressures_received_per_match</t>
+  </si>
+  <si>
+    <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_completed_passes_under_high_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_pass_attempts_under_high_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_forced_losses_under_low_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_ball_retentions_under_high_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_high_pressures_received_per_match</t>
+  </si>
+  <si>
+    <t>count_forced_losses_under_medium_pressure_per_match</t>
+  </si>
+  <si>
     <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
   </si>
   <si>
-    <t>count_ball_retentions_under_medium_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_medium_pressures_received_per_match</t>
-  </si>
-  <si>
-    <t>count_medium_pressures_received_in_sample</t>
-  </si>
-  <si>
-    <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_completed_passes_under_high_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_pass_attempts_under_high_pressure_per_match</t>
+    <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_forced_losses_under_high_pressure_per_match</t>
+  </si>
+  <si>
+    <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
   </si>
   <si>
     <t>pass_completion_ratio_under_low_pressure</t>
   </si>
   <si>
-    <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_forced_losses_under_low_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_ball_retentions_under_high_pressure_per_match</t>
+    <t>difficult_pass_completion_ratio_under_low_pressure</t>
   </si>
   <si>
     <t>ball_retention_ratio_under_low_pressure</t>
   </si>
   <si>
-    <t>count_high_pressures_received_per_match</t>
-  </si>
-  <si>
-    <t>count_high_pressures_received_in_sample</t>
-  </si>
-  <si>
-    <t>difficult_pass_completion_ratio_under_low_pressure</t>
-  </si>
-  <si>
-    <t>count_forced_losses_under_medium_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
-  </si>
-  <si>
-    <t>count_forced_losses_under_high_pressure_per_match</t>
-  </si>
-  <si>
     <t>dangerous_pass_completion_ratio_under_high_pressure</t>
-  </si>
-  <si>
-    <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
   </si>
   <si>
     <t>difficult_pass_completion_ratio_under_medium_pressure</t>
@@ -524,35 +512,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.5546875" customWidth="1"/>
+    <col min="1" max="1" width="65.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1.600183508465242</v>
@@ -564,12 +554,12 @@
         <v>2.29336087099245</v>
       </c>
       <c r="E2">
-        <v>43.318616824894242</v>
+        <v>43.32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.87218525779671308</v>
@@ -581,29 +571,29 @@
         <v>1.2488527495106441</v>
       </c>
       <c r="E3">
-        <v>43.186638199487177</v>
+        <v>43.19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>77.45881494035487</v>
+        <v>5.8273791777222543</v>
       </c>
       <c r="C4">
-        <v>84.933527352197387</v>
+        <v>6.2810430144261593</v>
       </c>
       <c r="D4">
-        <v>108.0337470045957</v>
+        <v>7.6817888697892247</v>
       </c>
       <c r="E4">
-        <v>39.472501725961422</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>11.265761259457079</v>
@@ -615,29 +605,29 @@
         <v>14.82957578023367</v>
       </c>
       <c r="E5">
-        <v>31.634031990380919</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2.7212416398136212</v>
       </c>
       <c r="C6">
-        <v>3.0786387229576082</v>
+        <v>3.0786387229576091</v>
       </c>
       <c r="D6">
         <v>3.5795832269516481</v>
       </c>
       <c r="E6">
-        <v>31.542277414100411</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>13.25038213583105</v>
@@ -649,49 +639,49 @@
         <v>17.19796674204569</v>
       </c>
       <c r="E7">
-        <v>29.792232146571589</v>
+        <v>29.79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>14.054592838698881</v>
       </c>
       <c r="C8">
-        <v>15.51319300684626</v>
+        <v>15.513193006846249</v>
       </c>
       <c r="D8">
         <v>18.231946724051991</v>
       </c>
       <c r="E8">
-        <v>29.722340115402691</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>5.4552490349626579</v>
+        <v>5.455249034962657</v>
       </c>
       <c r="C9">
-        <v>6.1629635619496304</v>
+        <v>6.1629635619496286</v>
       </c>
       <c r="D9">
-        <v>7.0026662289820178</v>
+        <v>7.0026662289820196</v>
       </c>
       <c r="E9">
-        <v>28.365656344961941</v>
+        <v>28.37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>16.935471610920519</v>
+        <v>16.93547161092053</v>
       </c>
       <c r="C10">
         <v>18.547950819018929</v>
@@ -700,568 +690,517 @@
         <v>21.640266683687731</v>
       </c>
       <c r="E10">
-        <v>27.780714826585712</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>16.935471610920519</v>
+        <v>56.471105428125547</v>
       </c>
       <c r="C11">
-        <v>18.547950819018929</v>
+        <v>61.620541728955047</v>
       </c>
       <c r="D11">
-        <v>21.640266683687731</v>
+        <v>71.638833114491007</v>
       </c>
       <c r="E11">
-        <v>27.780714826585712</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>56.47110542812554</v>
+        <v>70.870170561432175</v>
       </c>
       <c r="C12">
-        <v>61.620541728955061</v>
+        <v>77.078769110170043</v>
       </c>
       <c r="D12">
-        <v>71.638833114491007</v>
+        <v>89.138545883940623</v>
       </c>
       <c r="E12">
-        <v>26.859271783993009</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>70.870170561432175</v>
+        <v>66.673426918937764</v>
       </c>
       <c r="C13">
-        <v>77.078769110170043</v>
+        <v>72.524784173723802</v>
       </c>
       <c r="D13">
-        <v>89.138545883940623</v>
+        <v>83.503544333807497</v>
       </c>
       <c r="E13">
-        <v>25.777241930965761</v>
+        <v>25.24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>200.04599846425941</v>
+        <v>7.6493073957160664</v>
       </c>
       <c r="C14">
-        <v>213.35129712970581</v>
+        <v>8.2154380145092212</v>
       </c>
       <c r="D14">
-        <v>251.17240130211181</v>
+        <v>9.566869399764137</v>
       </c>
       <c r="E14">
-        <v>25.557323430784191</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>66.673426918937764</v>
+        <v>86.323652819302964</v>
       </c>
       <c r="C15">
-        <v>72.524784173723802</v>
+        <v>93.443250525564764</v>
       </c>
       <c r="D15">
-        <v>83.503544333807483</v>
+        <v>106.7866922590607</v>
       </c>
       <c r="E15">
-        <v>25.242616425479302</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>7.6493073957160647</v>
+        <v>7.4717388643743137</v>
       </c>
       <c r="C16">
-        <v>8.2154380145092212</v>
+        <v>8.1345040278709</v>
       </c>
       <c r="D16">
-        <v>9.566869399764137</v>
+        <v>9.144928481112693</v>
       </c>
       <c r="E16">
-        <v>25.06843959653116</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>86.32365281930295</v>
+        <v>4.0134031617003751</v>
       </c>
       <c r="C17">
-        <v>93.443250525564764</v>
+        <v>4.2272485330612266</v>
       </c>
       <c r="D17">
-        <v>106.7866922590607</v>
+        <v>4.9103802689328999</v>
       </c>
       <c r="E17">
-        <v>23.705020317655009</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>86.323652819302964</v>
+        <v>15.238842728502171</v>
       </c>
       <c r="C18">
-        <v>93.443250525564764</v>
+        <v>16.446510611270671</v>
       </c>
       <c r="D18">
-        <v>106.7866922590607</v>
+        <v>18.564014723225249</v>
       </c>
       <c r="E18">
-        <v>23.705020317654991</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>7.4717388643743137</v>
+        <v>57.60395608947853</v>
       </c>
       <c r="C19">
-        <v>8.1345040278709</v>
+        <v>60.481967418848228</v>
       </c>
       <c r="D19">
-        <v>9.1449284811126912</v>
+        <v>70.140658776185091</v>
       </c>
       <c r="E19">
-        <v>22.39357727979819</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>4.0134031617003751</v>
+        <v>74.995921008397787</v>
       </c>
       <c r="C20">
-        <v>4.2272485330612266</v>
+        <v>78.565325576672336</v>
       </c>
       <c r="D20">
-        <v>4.9103802689328999</v>
+        <v>91.038801503933072</v>
       </c>
       <c r="E20">
-        <v>22.34953905932786</v>
+        <v>21.39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>15.238842728502171</v>
+        <v>1.4434214936343419</v>
       </c>
       <c r="C21">
-        <v>16.446510611270671</v>
+        <v>1.5592171137604569</v>
       </c>
       <c r="D21">
-        <v>18.564014723225249</v>
+        <v>1.7483176496334389</v>
       </c>
       <c r="E21">
-        <v>21.82037083763452</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>57.603956089478537</v>
+        <v>2.8925238984604311</v>
       </c>
       <c r="C22">
-        <v>60.481967418848207</v>
+        <v>3.1311218029174692</v>
       </c>
       <c r="D22">
-        <v>70.140658776185091</v>
+        <v>3.497550485708381</v>
       </c>
       <c r="E22">
-        <v>21.7636140601746</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>74.995921008397787</v>
+        <v>3.685089475089474</v>
       </c>
       <c r="C23">
-        <v>78.565325576672336</v>
+        <v>4.0073790410168124</v>
       </c>
       <c r="D23">
-        <v>91.038801503933072</v>
+        <v>4.4422999416420463</v>
       </c>
       <c r="E23">
-        <v>21.391670746651489</v>
+        <v>20.55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>573.01496311001893</v>
+        <v>83.388316425680983</v>
       </c>
       <c r="C24">
-        <v>613.98450187425669</v>
+        <v>87.8812457219191</v>
       </c>
       <c r="D24">
-        <v>694.40779071986958</v>
+        <v>99.661982377113972</v>
       </c>
       <c r="E24">
-        <v>21.184931533200331</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>1.4434214936343419</v>
+        <v>115.4107576596044</v>
       </c>
       <c r="C25">
-        <v>1.5592171137604569</v>
+        <v>121.2375572724025</v>
       </c>
       <c r="D25">
-        <v>1.7483176496334389</v>
+        <v>137.0217694921642</v>
       </c>
       <c r="E25">
-        <v>21.123154764129879</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>2.8925238984604311</v>
+        <v>19.650225900365221</v>
       </c>
       <c r="C26">
-        <v>3.1311218029174692</v>
+        <v>20.918466351840969</v>
       </c>
       <c r="D26">
-        <v>3.497550485708381</v>
+        <v>23.283147925253189</v>
       </c>
       <c r="E26">
-        <v>20.916908848012621</v>
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>3.6850894750894749</v>
+        <v>15.154632901574679</v>
       </c>
       <c r="C27">
-        <v>4.0073790410168124</v>
+        <v>15.72062126685751</v>
       </c>
       <c r="D27">
-        <v>4.4422999416420472</v>
+        <v>17.845799696681478</v>
       </c>
       <c r="E27">
-        <v>20.547953358288169</v>
+        <v>17.760000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>83.388316425680983</v>
+        <v>17.36013808463499</v>
       </c>
       <c r="C28">
-        <v>87.8812457219191</v>
+        <v>17.697267641571049</v>
       </c>
       <c r="D28">
-        <v>99.661982377113944</v>
+        <v>20.330162095293669</v>
       </c>
       <c r="E28">
-        <v>19.515522856174591</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>620.3184410156357</v>
+        <v>32.022441233923431</v>
       </c>
       <c r="C29">
-        <v>658.87257468036876</v>
+        <v>33.356311550483369</v>
       </c>
       <c r="D29">
-        <v>739.30120357047338</v>
+        <v>37.359787115050267</v>
       </c>
       <c r="E29">
-        <v>19.180916556346361</v>
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>115.4107576596044</v>
+        <v>8.2553481871399832</v>
       </c>
       <c r="C30">
-        <v>121.2375572724025</v>
+        <v>8.2879143699809319</v>
       </c>
       <c r="D30">
-        <v>137.02176949216431</v>
+        <v>9.440668654484444</v>
       </c>
       <c r="E30">
-        <v>18.725301064481311</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>115.4107576596044</v>
+        <v>43.415930102464323</v>
       </c>
       <c r="C31">
-        <v>121.2375572724025</v>
+        <v>45.101682907846637</v>
       </c>
       <c r="D31">
-        <v>137.0217694921642</v>
+        <v>49.378893661352997</v>
       </c>
       <c r="E31">
-        <v>18.72530106448129</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>119.2570131947749</v>
+        <v>9.0250109773563416</v>
       </c>
       <c r="C32">
-        <v>128.9547865437489</v>
+        <v>9.4393041776803059</v>
       </c>
       <c r="D32">
-        <v>141.46658077561369</v>
+        <v>10.082225748885291</v>
       </c>
       <c r="E32">
-        <v>18.623280078770129</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>19.650225900365221</v>
+        <v>47.061861810250392</v>
       </c>
       <c r="C33">
-        <v>20.918466351840969</v>
+        <v>48.356453395334647</v>
       </c>
       <c r="D33">
-        <v>23.283147925253189</v>
+        <v>52.563708536087212</v>
       </c>
       <c r="E33">
-        <v>18.48794025732013</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>17.36013808463499</v>
+        <v>19.71852194374204</v>
       </c>
       <c r="C34">
-        <v>17.697267641571049</v>
+        <v>19.358600232590302</v>
       </c>
       <c r="D34">
-        <v>20.33016209529368</v>
+        <v>21.25778765824138</v>
       </c>
       <c r="E34">
-        <v>17.108297158577209</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>32.022441233923423</v>
+        <v>29.682129770277641</v>
       </c>
       <c r="C35">
-        <v>33.356311550483383</v>
+        <v>29.684548488785381</v>
       </c>
       <c r="D35">
-        <v>37.359787115050281</v>
+        <v>31.046622510065419</v>
       </c>
       <c r="E35">
-        <v>16.66751713942616</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>260.87393714133771</v>
+        <v>30.62666890807542</v>
       </c>
       <c r="C36">
-        <v>264.36747593245713</v>
+        <v>30.202939735879461</v>
       </c>
       <c r="D36">
-        <v>298.82504606478949</v>
+        <v>31.701279509740921</v>
       </c>
       <c r="E36">
-        <v>14.547681282124559</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>8.2553481871399814</v>
+        <v>69.44943646401461</v>
       </c>
       <c r="C37">
-        <v>8.2879143699809337</v>
+        <v>69.915304898117469</v>
       </c>
       <c r="D37">
-        <v>9.440668654484444</v>
+        <v>71.082363097480993</v>
       </c>
       <c r="E37">
-        <v>14.358212887869851</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>389.47018035430523</v>
+        <v>69.62332786874191</v>
       </c>
       <c r="C38">
-        <v>402.19769507994289</v>
+        <v>69.907670711088628</v>
       </c>
       <c r="D38">
-        <v>436.77184104600548</v>
+        <v>71.220494086208987</v>
       </c>
       <c r="E38">
-        <v>12.145130250708659</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>403.09835441140763</v>
+        <v>69.544534622227133</v>
       </c>
       <c r="C39">
-        <v>410.54610654251019</v>
+        <v>69.817811199722485</v>
       </c>
       <c r="D39">
-        <v>445.18986325850148</v>
+        <v>70.265771089502138</v>
       </c>
       <c r="E39">
-        <v>10.441994710832949</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>915.80255805499655</v>
+        <v>67.942904145321336</v>
       </c>
       <c r="C40">
-        <v>948.75936441128124</v>
+        <v>68.278889652015877</v>
       </c>
       <c r="D40">
-        <v>1001.200060216593</v>
+        <v>68.633473171190644</v>
       </c>
       <c r="E40">
-        <v>9.3248813743178118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>918.24621441971226</v>
-      </c>
-      <c r="C41">
-        <v>948.29768882682401</v>
-      </c>
-      <c r="D41">
-        <v>1003.314485697742</v>
-      </c>
-      <c r="E41">
-        <v>9.2642114873067243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>916.79341571754412</v>
-      </c>
-      <c r="C42">
-        <v>948.14612106321476</v>
-      </c>
-      <c r="D42">
-        <v>989.99764353928799</v>
-      </c>
-      <c r="E42">
-        <v>7.9848116889505931</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>896.25611446325388</v>
-      </c>
-      <c r="C43">
-        <v>926.87484472417907</v>
-      </c>
-      <c r="D43">
-        <v>967.15406091111379</v>
-      </c>
-      <c r="E43">
-        <v>7.9104560966168664</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/Evolutions métriques/evo_pressure.xlsx
+++ b/Tableau métriques/Evolutions métriques/evo_pressure.xlsx
@@ -29,32 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -96,15 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -530,7 +506,7 @@
       <c r="E2" t="n">
         <v>2.410640597050704</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" t="n">
         <v>51.32950930390696</v>
       </c>
     </row>
@@ -550,7 +526,7 @@
       <c r="E3" t="n">
         <v>2.000435193492698</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" t="n">
         <v>32.68894191803353</v>
       </c>
     </row>
@@ -574,7 +550,7 @@
       <c r="E4" t="n">
         <v>1.385890456071857</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" t="n">
         <v>50.83304569889628</v>
       </c>
     </row>
@@ -594,7 +570,7 @@
       <c r="E5" t="n">
         <v>1.06381422774367</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" t="n">
         <v>32.22766019857388</v>
       </c>
     </row>
@@ -618,7 +594,7 @@
       <c r="E6" t="n">
         <v>8.565383007793118</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" t="n">
         <v>35.87135379194525</v>
       </c>
     </row>
@@ -638,7 +614,7 @@
       <c r="E7" t="n">
         <v>6.532750709376882</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" t="n">
         <v>21.61474716595189</v>
       </c>
     </row>
@@ -662,7 +638,7 @@
       <c r="E8" t="n">
         <v>9.708868999212646</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" t="n">
         <v>20.56868256798012</v>
       </c>
     </row>
@@ -682,7 +658,7 @@
       <c r="E9" t="n">
         <v>8.461886087333903</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" t="n">
         <v>19.01289106872961</v>
       </c>
     </row>
@@ -706,7 +682,7 @@
       <c r="E10" t="n">
         <v>95.52800501858587</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" t="n">
         <v>16.56145516127356</v>
       </c>
     </row>
@@ -726,7 +702,7 @@
       <c r="E11" t="n">
         <v>90.11001493881376</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" t="n">
         <v>12.99309113151754</v>
       </c>
     </row>
@@ -750,7 +726,7 @@
       <c r="E12" t="n">
         <v>129.2296056586938</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" t="n">
         <v>16.54206381752518</v>
       </c>
     </row>
@@ -770,7 +746,7 @@
       <c r="E13" t="n">
         <v>124.5727367736607</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" t="n">
         <v>12.00720352926154</v>
       </c>
     </row>
@@ -794,7 +770,7 @@
       <c r="E14" t="n">
         <v>33.70160064010796</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" t="n">
         <v>16.48713362975638</v>
       </c>
     </row>
@@ -814,7 +790,7 @@
       <c r="E15" t="n">
         <v>34.46272183484692</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" t="n">
         <v>9.508881902812632</v>
       </c>
     </row>
@@ -838,7 +814,7 @@
       <c r="E16" t="n">
         <v>4.135877655214959</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" t="n">
         <v>15.23342754881832</v>
       </c>
     </row>
@@ -858,7 +834,7 @@
       <c r="E17" t="n">
         <v>4.051664150279227</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" t="n">
         <v>15.34002429602825</v>
       </c>
     </row>
@@ -882,7 +858,7 @@
       <c r="E18" t="n">
         <v>82.06453223751136</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" t="n">
         <v>13.87635441753488</v>
       </c>
     </row>
@@ -902,7 +878,7 @@
       <c r="E19" t="n">
         <v>74.85314098456587</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" t="n">
         <v>20.80535744550258</v>
       </c>
     </row>
@@ -926,7 +902,7 @@
       <c r="E20" t="n">
         <v>21.73595382610306</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" t="n">
         <v>13.30939818576465</v>
       </c>
     </row>
@@ -946,7 +922,7 @@
       <c r="E21" t="n">
         <v>19.21712725753227</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" t="n">
         <v>25.32212815416169</v>
       </c>
     </row>
@@ -970,7 +946,7 @@
       <c r="E22" t="n">
         <v>3.531582012538288</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" t="n">
         <v>13.21481949281723</v>
       </c>
     </row>
@@ -990,7 +966,7 @@
       <c r="E23" t="n">
         <v>3.198585986536425</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" t="n">
         <v>31.07641984525807</v>
       </c>
     </row>
@@ -1014,7 +990,7 @@
       <c r="E24" t="n">
         <v>103.1371696892224</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" t="n">
         <v>13.00474662300584</v>
       </c>
     </row>
@@ -1034,7 +1010,7 @@
       <c r="E25" t="n">
         <v>96.31081883995294</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" t="n">
         <v>19.15454122448651</v>
       </c>
     </row>
@@ -1058,7 +1034,7 @@
       <c r="E26" t="n">
         <v>17.60007617088811</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" t="n">
         <v>12.86655331942699</v>
       </c>
     </row>
@@ -1078,7 +1054,7 @@
       <c r="E27" t="n">
         <v>15.16546310725304</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" t="n">
         <v>28.28837375596585</v>
       </c>
     </row>
@@ -1102,7 +1078,7 @@
       <c r="E28" t="n">
         <v>86.44445893810969</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" t="n">
         <v>12.63166075823064</v>
       </c>
     </row>
@@ -1122,7 +1098,7 @@
       <c r="E29" t="n">
         <v>82.58892288068478</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" t="n">
         <v>16.76845458998826</v>
       </c>
     </row>
@@ -1146,7 +1122,7 @@
       <c r="E30" t="n">
         <v>70.82781662781403</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" t="n">
         <v>12.50100404266679</v>
       </c>
     </row>
@@ -1166,7 +1142,7 @@
       <c r="E31" t="n">
         <v>64.08204753818748</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" t="n">
         <v>23.57854746909331</v>
       </c>
     </row>
@@ -1190,7 +1166,7 @@
       <c r="E32" t="n">
         <v>7.005592049041718</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" t="n">
         <v>12.31694447793836</v>
       </c>
     </row>
@@ -1210,7 +1186,7 @@
       <c r="E33" t="n">
         <v>6.23119532036499</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" t="n">
         <v>27.39233337116702</v>
       </c>
     </row>
@@ -1234,7 +1210,7 @@
       <c r="E34" t="n">
         <v>67.72483866786148</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" t="n">
         <v>12.20700418985297</v>
       </c>
     </row>
@@ -1254,7 +1230,7 @@
       <c r="E35" t="n">
         <v>63.26187430073603</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" t="n">
         <v>17.44212646106376</v>
       </c>
     </row>
@@ -1278,7 +1254,7 @@
       <c r="E36" t="n">
         <v>5.064005266963315</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" t="n">
         <v>12.10461316892618</v>
       </c>
     </row>
@@ -1298,7 +1274,7 @@
       <c r="E37" t="n">
         <v>4.315425007309899</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" t="n">
         <v>19.25346308229267</v>
       </c>
     </row>
@@ -1322,7 +1298,7 @@
       <c r="E38" t="n">
         <v>86.77578665338726</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" t="n">
         <v>11.98363759085851</v>
       </c>
     </row>
@@ -1342,7 +1318,7 @@
       <c r="E39" t="n">
         <v>80.17453381111775</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" t="n">
         <v>22.37780246184559</v>
       </c>
     </row>
@@ -1366,7 +1342,7 @@
       <c r="E40" t="n">
         <v>18.52614447702483</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" t="n">
         <v>11.20420041855316</v>
       </c>
     </row>
@@ -1386,7 +1362,7 @@
       <c r="E41" t="n">
         <v>16.12575585749938</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" t="n">
         <v>29.10554682493985</v>
       </c>
     </row>
@@ -1410,7 +1386,7 @@
       <c r="E42" t="n">
         <v>3.185130243983958</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" t="n">
         <v>11.18396160091147</v>
       </c>
     </row>
@@ -1430,7 +1406,7 @@
       <c r="E43" t="n">
         <v>3.213056349755119</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" t="n">
         <v>17.08761066658492</v>
       </c>
     </row>
@@ -1454,7 +1430,7 @@
       <c r="E44" t="n">
         <v>15.31797612483565</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" t="n">
         <v>10.73342949079386</v>
       </c>
     </row>
@@ -1474,7 +1450,7 @@
       <c r="E45" t="n">
         <v>13.03439753150214</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" t="n">
         <v>32.08111421256152</v>
       </c>
     </row>
@@ -1498,7 +1474,7 @@
       <c r="E46" t="n">
         <v>21.07263745171105</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" t="n">
         <v>9.733864983579503</v>
       </c>
     </row>
@@ -1518,7 +1494,7 @@
       <c r="E47" t="n">
         <v>21.45767785538708</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" t="n">
         <v>13.73295744439647</v>
       </c>
     </row>
@@ -1542,7 +1518,7 @@
       <c r="E48" t="n">
         <v>27.41551230945307</v>
       </c>
-      <c r="F48" s="4" t="n">
+      <c r="F48" t="n">
         <v>-8.428141830847993</v>
       </c>
     </row>
@@ -1562,7 +1538,7 @@
       <c r="E49" t="n">
         <v>28.82947715268287</v>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49" t="n">
         <v>0.108942410887985</v>
       </c>
     </row>
@@ -1586,7 +1562,7 @@
       <c r="E50" t="n">
         <v>18.54999338279208</v>
       </c>
-      <c r="F50" s="3" t="n">
+      <c r="F50" t="n">
         <v>7.950188522431199</v>
       </c>
     </row>
@@ -1606,7 +1582,7 @@
       <c r="E51" t="n">
         <v>18.68158928812503</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" t="n">
         <v>12.99362763345526</v>
       </c>
     </row>
@@ -1630,7 +1606,7 @@
       <c r="E52" t="n">
         <v>20.44579215155953</v>
       </c>
-      <c r="F52" s="3" t="n">
+      <c r="F52" t="n">
         <v>-7.151930231180318</v>
       </c>
     </row>
@@ -1650,7 +1626,7 @@
       <c r="E53" t="n">
         <v>19.19621465662603</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" t="n">
         <v>6.223912576462237</v>
       </c>
     </row>
@@ -1674,7 +1650,7 @@
       <c r="E54" t="n">
         <v>1.616317785566582</v>
       </c>
-      <c r="F54" s="3" t="n">
+      <c r="F54" t="n">
         <v>7.01156241003757</v>
       </c>
     </row>
@@ -1694,7 +1670,7 @@
       <c r="E55" t="n">
         <v>1.597280398074337</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" t="n">
         <v>18.85050526202421</v>
       </c>
     </row>
@@ -1718,7 +1694,7 @@
       <c r="E56" t="n">
         <v>65.26093577501423</v>
       </c>
-      <c r="F56" s="4" t="n">
+      <c r="F56" t="n">
         <v>-6.069327810915897</v>
       </c>
     </row>
@@ -1738,7 +1714,7 @@
       <c r="E57" t="n">
         <v>64.25097355208202</v>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" t="n">
         <v>-4.94899060107474</v>
       </c>
     </row>
@@ -1762,7 +1738,7 @@
       <c r="E58" t="n">
         <v>63.79663852730737</v>
       </c>
-      <c r="F58" s="4" t="n">
+      <c r="F58" t="n">
         <v>-5.708680842749602</v>
       </c>
     </row>
@@ -1782,7 +1758,7 @@
       <c r="E59" t="n">
         <v>62.74636097489238</v>
       </c>
-      <c r="F59" s="5" t="n">
+      <c r="F59" t="n">
         <v>-5.097630652488502</v>
       </c>
     </row>
@@ -1806,7 +1782,7 @@
       <c r="E60" t="n">
         <v>65.38722993464907</v>
       </c>
-      <c r="F60" s="4" t="n">
+      <c r="F60" t="n">
         <v>-5.518366093084028</v>
       </c>
     </row>
@@ -1826,7 +1802,7 @@
       <c r="E61" t="n">
         <v>65.21654156881303</v>
       </c>
-      <c r="F61" s="5" t="n">
+      <c r="F61" t="n">
         <v>-3.535174685016797</v>
       </c>
     </row>
@@ -1850,7 +1826,7 @@
       <c r="E62" t="n">
         <v>8.190240281646732</v>
       </c>
-      <c r="F62" s="3" t="n">
+      <c r="F62" t="n">
         <v>5.095940475560559</v>
       </c>
     </row>
@@ -1870,7 +1846,7 @@
       <c r="E63" t="n">
         <v>8.449312368547409</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" t="n">
         <v>20.71832669090901</v>
       </c>
     </row>
@@ -1894,7 +1870,7 @@
       <c r="E64" t="n">
         <v>16.88538319807508</v>
       </c>
-      <c r="F64" s="3" t="n">
+      <c r="F64" t="n">
         <v>4.893197337035209</v>
       </c>
     </row>
@@ -1914,7 +1890,7 @@
       <c r="E65" t="n">
         <v>17.07793803699742</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" t="n">
         <v>20.41594959532499</v>
       </c>
     </row>
@@ -1938,7 +1914,7 @@
       <c r="E66" t="n">
         <v>66.33539009640845</v>
       </c>
-      <c r="F66" s="4" t="n">
+      <c r="F66" t="n">
         <v>-4.785414568281149</v>
       </c>
     </row>
@@ -1958,7 +1934,7 @@
       <c r="E67" t="n">
         <v>65.07082769935018</v>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67" t="n">
         <v>-3.931709372071761</v>
       </c>
     </row>
@@ -1982,7 +1958,7 @@
       <c r="E68" t="n">
         <v>8.771641647253919</v>
       </c>
-      <c r="F68" s="3" t="n">
+      <c r="F68" t="n">
         <v>4.269168069797119</v>
       </c>
     </row>
@@ -2002,7 +1978,7 @@
       <c r="E69" t="n">
         <v>8.6196950759535</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" t="n">
         <v>10.77935873607023</v>
       </c>
     </row>
@@ -2026,7 +2002,7 @@
       <c r="E70" t="n">
         <v>29.60760713956032</v>
       </c>
-      <c r="F70" s="3" t="n">
+      <c r="F70" t="n">
         <v>-4.051246207707763</v>
       </c>
     </row>
@@ -2046,7 +2022,7 @@
       <c r="E71" t="n">
         <v>28.92710311937264</v>
       </c>
-      <c r="F71" s="4" t="n">
+      <c r="F71" t="n">
         <v>-1.807245549452374</v>
       </c>
     </row>
@@ -2070,7 +2046,7 @@
       <c r="E72" t="n">
         <v>48.20684748018029</v>
       </c>
-      <c r="F72" s="3" t="n">
+      <c r="F72" t="n">
         <v>2.360977270392308</v>
       </c>
     </row>
@@ -2090,7 +2066,7 @@
       <c r="E73" t="n">
         <v>44.34708230359838</v>
       </c>
-      <c r="F73" s="2" t="n">
+      <c r="F73" t="n">
         <v>8.927349989106405</v>
       </c>
     </row>
@@ -2114,7 +2090,7 @@
       <c r="E74" t="n">
         <v>50.69211739554204</v>
       </c>
-      <c r="F74" s="3" t="n">
+      <c r="F74" t="n">
         <v>2.027769149742201</v>
       </c>
     </row>
@@ -2134,7 +2110,7 @@
       <c r="E75" t="n">
         <v>47.41532395453828</v>
       </c>
-      <c r="F75" s="2" t="n">
+      <c r="F75" t="n">
         <v>6.030975930359006</v>
       </c>
     </row>
@@ -2158,7 +2134,7 @@
       <c r="E76" t="n">
         <v>9.388398995518534</v>
       </c>
-      <c r="F76" s="3" t="n">
+      <c r="F76" t="n">
         <v>-0.6231614698706729</v>
       </c>
     </row>
@@ -2178,7 +2154,7 @@
       <c r="E77" t="n">
         <v>9.188153106081415</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F77" t="n">
         <v>8.275221811514363</v>
       </c>
     </row>
@@ -2202,7 +2178,7 @@
       <c r="E78" t="n">
         <v>17.09933544338354</v>
       </c>
-      <c r="F78" s="3" t="n">
+      <c r="F78" t="n">
         <v>-0.396896607315637</v>
       </c>
     </row>
@@ -2222,7 +2198,7 @@
       <c r="E79" t="n">
         <v>16.11574960881844</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" t="n">
         <v>16.11764313287078</v>
       </c>
     </row>
